--- a/classfiers/nano/svm/nearmiss/nano-svm-default-nearmiss-results.xlsx
+++ b/classfiers/nano/svm/nearmiss/nano-svm-default-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6451612903225806</v>
+        <v>0.5581395348837209</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8200000000000001</v>
+        <v>0.6642857142857143</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.65</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5605263157894737</v>
+        <v>0.8214285714285714</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.5625</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8026315789473683</v>
+        <v>0.6571428571428571</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0.9545454545454545</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5517241379310346</v>
+        <v>0.4615384615384615</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7947368421052632</v>
+        <v>0.8075000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8648591174906965</v>
+        <v>0.7687747035573123</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5378947368421052</v>
+        <v>0.5957142857142858</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6279735768787933</v>
+        <v>0.6311542140030513</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7955789473684211</v>
+        <v>0.7700714285714285</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/nano/svm/nearmiss/nano-svm-default-nearmiss-results.xlsx
+++ b/classfiers/nano/svm/nearmiss/nano-svm-default-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5217391304347826</v>
+        <v>0.5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5581395348837209</v>
+        <v>0.5365853658536586</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6642857142857143</v>
+        <v>0.6371191135734072</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5909090909090909</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="C3" t="n">
-        <v>0.65</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6190476190476191</v>
+        <v>0.7317073170731707</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8214285714285714</v>
+        <v>0.8393351800554016</v>
       </c>
     </row>
     <row r="4">
@@ -508,13 +508,13 @@
         <v>0.8181818181818182</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5625</v>
+        <v>0.6</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6571428571428571</v>
+        <v>0.7313019390581718</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9130434782608695</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9545454545454545</v>
+        <v>0.972972972972973</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4615384615384615</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8075000000000001</v>
+        <v>0.706140350877193</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7687747035573123</v>
+        <v>0.7286041189931349</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5957142857142858</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6311542140030513</v>
+        <v>0.7206340835609127</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7700714285714285</v>
+        <v>0.7827793167128347</v>
       </c>
     </row>
   </sheetData>
